--- a/Questions/Life/Happiness.xlsx
+++ b/Questions/Life/Happiness.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>Id</t>
   </si>
@@ -65,6 +65,21 @@
   </si>
   <si>
     <t>will</t>
+  </si>
+  <si>
+    <t>A happy man does not complain all the time and thinks the world o***** him</t>
+  </si>
+  <si>
+    <t>owes</t>
+  </si>
+  <si>
+    <t>19/01/21</t>
+  </si>
+  <si>
+    <t>A happy man does not c***** all the time and thinks the world owes him</t>
+  </si>
+  <si>
+    <t>complain</t>
   </si>
 </sst>
 </file>
@@ -526,7 +541,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="G6" pane="bottomLeft" sqref="G6"/>
+      <selection activeCell="G8" pane="bottomLeft" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
@@ -647,14 +662,46 @@
       </c>
     </row>
     <row customHeight="1" ht="27.65" r="6" spans="1:7">
-      <c r="D6" s="6" t="n"/>
-      <c r="E6" s="9" t="n"/>
+      <c r="A6" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="F6" s="9" t="n"/>
+      <c r="G6" s="11" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row customHeight="1" ht="27.65" r="7" spans="1:7">
-      <c r="D7" s="6" t="n"/>
-      <c r="E7" s="6" t="n"/>
+      <c r="A7" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="F7" s="6" t="n"/>
+      <c r="G7" s="11" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="D8" s="6" t="n"/>

--- a/Questions/Life/Happiness.xlsx
+++ b/Questions/Life/Happiness.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>Id</t>
   </si>
@@ -80,6 +80,21 @@
   </si>
   <si>
     <t>complain</t>
+  </si>
+  <si>
+    <t>Happy people share p***** energy with those around them</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>20/01/21</t>
+  </si>
+  <si>
+    <t>Happy people share positive energy with t***** around them</t>
+  </si>
+  <si>
+    <t>those</t>
   </si>
 </sst>
 </file>
@@ -537,11 +552,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="G8" pane="bottomLeft" sqref="G8"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A4" ySplit="1"/>
+      <selection activeCell="D10" pane="bottomLeft" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
@@ -703,11 +718,48 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="D8" s="6" t="n"/>
-      <c r="E8" s="6" t="n"/>
+    <row customHeight="1" ht="29" r="8" spans="1:7">
+      <c r="A8" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="F8" s="6" t="n"/>
+      <c r="G8" s="11" t="s">
+        <v>24</v>
+      </c>
     </row>
+    <row customHeight="1" ht="29" r="9" spans="1:7">
+      <c r="A9" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule priority="3" type="colorScale">

--- a/Questions/Life/Happiness.xlsx
+++ b/Questions/Life/Happiness.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12580" windowWidth="23260" xWindow="-110" yWindow="-110"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,96 +13,10 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>If one of the family members is not happy, eventually none of them will be h*****</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>18/01/21</t>
-  </si>
-  <si>
-    <t>If one of the family members is not happy, e***** none of them will be happy</t>
-  </si>
-  <si>
-    <t>eventually</t>
-  </si>
-  <si>
-    <t>Without happiness, we will not be a***** to share it</t>
-  </si>
-  <si>
-    <t>able</t>
-  </si>
-  <si>
-    <t>Without happiness, we w***** not be able to share it</t>
-  </si>
-  <si>
-    <t>will</t>
-  </si>
-  <si>
-    <t>A happy man does not complain all the time and thinks the world o***** him</t>
-  </si>
-  <si>
-    <t>owes</t>
-  </si>
-  <si>
-    <t>19/01/21</t>
-  </si>
-  <si>
-    <t>A happy man does not c***** all the time and thinks the world owes him</t>
-  </si>
-  <si>
-    <t>complain</t>
-  </si>
-  <si>
-    <t>Happy people share p***** energy with those around them</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>20/01/21</t>
-  </si>
-  <si>
-    <t>Happy people share positive energy with t***** around them</t>
-  </si>
-  <si>
-    <t>those</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -237,51 +151,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -554,215 +468,293 @@
   </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A4" ySplit="1"/>
-      <selection activeCell="D10" pane="bottomLeft" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.36328125"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.08984375"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.1796875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.81640625"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.7265625"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.6328125"/>
+    <col width="3.36328125" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.08984375" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.1796875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.81640625" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.7265625" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.6328125" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="29" r="2" spans="1:7">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="12" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="10" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="29" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>If one of the family members is not happy, eventually none of them will be h*****</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
       </c>
       <c r="F2" s="6" t="n"/>
-      <c r="G2" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.65" r="3" spans="1:7">
+      <c r="G2" s="11" t="inlineStr">
+        <is>
+          <t>18/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="27.65" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>12</v>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>If one of the family members is not happy, e***** none of them will be happy</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>eventually</t>
+        </is>
       </c>
       <c r="F3" s="6" t="n"/>
-      <c r="G3" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.65" r="4" spans="1:7">
+      <c r="G3" s="11" t="inlineStr">
+        <is>
+          <t>18/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="27.65" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>14</v>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>Without happiness, we will not be a***** to share it</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>able</t>
+        </is>
       </c>
       <c r="F4" s="6" t="n"/>
-      <c r="G4" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.65" r="5" spans="1:7">
+      <c r="G4" s="11" t="inlineStr">
+        <is>
+          <t>18/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="27.65" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>16</v>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>Without happiness, we w***** not be able to share it</t>
+        </is>
+      </c>
+      <c r="E5" s="9" t="inlineStr">
+        <is>
+          <t>will</t>
+        </is>
       </c>
       <c r="F5" s="9" t="n"/>
-      <c r="G5" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.65" r="6" spans="1:7">
+      <c r="G5" s="11" t="inlineStr">
+        <is>
+          <t>18/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="27.65" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>18</v>
+      <c r="C6" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>A happy man does not complain all the time and thinks the world o***** him</t>
+        </is>
+      </c>
+      <c r="E6" s="9" t="inlineStr">
+        <is>
+          <t>owes</t>
+        </is>
       </c>
       <c r="F6" s="9" t="n"/>
-      <c r="G6" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.65" r="7" spans="1:7">
+      <c r="G6" s="11" t="inlineStr">
+        <is>
+          <t>19/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="27.65" customHeight="1">
       <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>21</v>
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>A happy man does not c***** all the time and thinks the world owes him</t>
+        </is>
+      </c>
+      <c r="E7" s="6" t="inlineStr">
+        <is>
+          <t>complain</t>
+        </is>
       </c>
       <c r="F7" s="6" t="n"/>
-      <c r="G7" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="29" r="8" spans="1:7">
+      <c r="G7" s="11" t="inlineStr">
+        <is>
+          <t>19/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="29" customHeight="1">
       <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>23</v>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>Happy people share p***** energy with those around them</t>
+        </is>
+      </c>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
       <c r="F8" s="6" t="n"/>
-      <c r="G8" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="29" r="9" spans="1:7">
+      <c r="G8" s="11" t="inlineStr">
+        <is>
+          <t>20/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="29" customHeight="1">
       <c r="A9" s="3" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7"/>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>Happy people share positive energy with t***** around them</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>those</t>
+        </is>
+      </c>
+      <c r="G9" s="11" t="inlineStr">
+        <is>
+          <t>20/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="10"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -774,7 +766,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -786,7 +778,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -797,7 +789,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Life/Happiness.xlsx
+++ b/Questions/Life/Happiness.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12580" windowWidth="23260" xWindow="-110" yWindow="-110"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,51 +151,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -468,22 +536,22 @@
   </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A4" ySplit="1"/>
+      <selection activeCell="D10" pane="bottomLeft" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col width="3.36328125" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.08984375" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.1796875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.81640625" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.7265625" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.6328125" customWidth="1" style="11" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.36328125"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.08984375"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.1796875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.81640625"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.7265625"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.6328125"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -520,9 +588,9 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="29" customHeight="1">
+    <row customHeight="1" ht="29" r="2">
       <c r="A2" s="3" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
@@ -549,9 +617,9 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.65" r="3">
       <c r="A3" s="3" t="n">
-        <v>2</v>
+        <v>231</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
@@ -578,9 +646,9 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.65" r="4">
       <c r="A4" s="3" t="n">
-        <v>3</v>
+        <v>232</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>1</v>
@@ -607,9 +675,9 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.65" r="5">
       <c r="A5" s="3" t="n">
-        <v>4</v>
+        <v>233</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>1</v>
@@ -636,9 +704,9 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.65" r="6">
       <c r="A6" s="3" t="n">
-        <v>5</v>
+        <v>234</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>1</v>
@@ -665,9 +733,9 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.65" r="7">
       <c r="A7" s="3" t="n">
-        <v>6</v>
+        <v>235</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>1</v>
@@ -694,9 +762,9 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="29" customHeight="1">
+    <row customHeight="1" ht="29" r="8">
       <c r="A8" s="3" t="n">
-        <v>7</v>
+        <v>236</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>1</v>
@@ -723,9 +791,9 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="29" customHeight="1">
+    <row customHeight="1" ht="29" r="9">
       <c r="A9" s="3" t="n">
-        <v>8</v>
+        <v>237</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>1</v>
@@ -754,7 +822,7 @@
     <row r="10"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -766,7 +834,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -778,7 +846,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -789,7 +857,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Life/Happiness.xlsx
+++ b/Questions/Life/Happiness.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12580" windowWidth="23260" xWindow="-110" yWindow="-110"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,119 +151,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -536,22 +468,22 @@
   </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A4" ySplit="1"/>
-      <selection activeCell="D10" pane="bottomLeft" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.36328125"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.08984375"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.1796875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.81640625"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.7265625"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.6328125"/>
+    <col width="3.36328125" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.08984375" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.1796875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.81640625" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.7265625" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.6328125" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -588,7 +520,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="29" r="2">
+    <row r="2" ht="29" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>230</v>
       </c>
@@ -617,7 +549,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.65" r="3">
+    <row r="3" ht="27.65" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>231</v>
       </c>
@@ -646,7 +578,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.65" r="4">
+    <row r="4" ht="27.65" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>232</v>
       </c>
@@ -675,7 +607,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.65" r="5">
+    <row r="5" ht="27.65" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>233</v>
       </c>
@@ -704,7 +636,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.65" r="6">
+    <row r="6" ht="27.65" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>234</v>
       </c>
@@ -733,7 +665,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.65" r="7">
+    <row r="7" ht="27.65" customHeight="1">
       <c r="A7" s="3" t="n">
         <v>235</v>
       </c>
@@ -762,7 +694,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="29" r="8">
+    <row r="8" ht="29" customHeight="1">
       <c r="A8" s="3" t="n">
         <v>236</v>
       </c>
@@ -791,7 +723,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="29" r="9">
+    <row r="9" ht="29" customHeight="1">
       <c r="A9" s="3" t="n">
         <v>237</v>
       </c>
@@ -822,7 +754,7 @@
     <row r="10"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -834,7 +766,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -846,7 +778,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -857,7 +789,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Life/Happiness.xlsx
+++ b/Questions/Life/Happiness.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12580" windowWidth="23260" xWindow="-110" yWindow="-110"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,51 +151,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,24 +534,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A4" ySplit="1"/>
+      <selection activeCell="D10" pane="bottomLeft" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col width="3.36328125" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.08984375" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.1796875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.81640625" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.7265625" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.6328125" customWidth="1" style="11" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.36328125"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.08984375"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.1796875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.81640625"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.7265625"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.6328125"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -520,7 +588,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="29" customHeight="1">
+    <row customHeight="1" ht="29" r="2">
       <c r="A2" s="3" t="n">
         <v>230</v>
       </c>
@@ -549,7 +617,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.65" r="3">
       <c r="A3" s="3" t="n">
         <v>231</v>
       </c>
@@ -578,7 +646,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.65" r="4">
       <c r="A4" s="3" t="n">
         <v>232</v>
       </c>
@@ -607,7 +675,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.65" r="5">
       <c r="A5" s="3" t="n">
         <v>233</v>
       </c>
@@ -636,7 +704,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.65" r="6">
       <c r="A6" s="3" t="n">
         <v>234</v>
       </c>
@@ -665,7 +733,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.65" r="7">
       <c r="A7" s="3" t="n">
         <v>235</v>
       </c>
@@ -694,7 +762,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="29" customHeight="1">
+    <row customHeight="1" ht="29" r="8">
       <c r="A8" s="3" t="n">
         <v>236</v>
       </c>
@@ -723,7 +791,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="29" customHeight="1">
+    <row customHeight="1" ht="29" r="9">
       <c r="A9" s="3" t="n">
         <v>237</v>
       </c>
@@ -751,10 +819,9 @@
         </is>
       </c>
     </row>
-    <row r="10"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -766,7 +833,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -778,7 +845,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -789,7 +856,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Life/Happiness.xlsx
+++ b/Questions/Life/Happiness.xlsx
@@ -534,7 +534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A4" ySplit="1"/>
@@ -819,6 +819,7 @@
         </is>
       </c>
     </row>
+    <row r="10"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule priority="3" type="colorScale">

--- a/Questions/Life/Happiness.xlsx
+++ b/Questions/Life/Happiness.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12580" windowWidth="23260" xWindow="-110" yWindow="-110"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,51 +151,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -468,22 +536,22 @@
   </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A4" ySplit="1"/>
+      <selection activeCell="D10" pane="bottomLeft" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col width="3.36328125" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.08984375" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.1796875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.81640625" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.7265625" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.6328125" customWidth="1" style="11" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.36328125"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.08984375"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.1796875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.81640625"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.7265625"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.6328125"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -520,7 +588,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="29" customHeight="1">
+    <row customHeight="1" ht="29" r="2">
       <c r="A2" s="3" t="n">
         <v>230</v>
       </c>
@@ -549,7 +617,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.65" r="3">
       <c r="A3" s="3" t="n">
         <v>231</v>
       </c>
@@ -578,7 +646,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.65" r="4">
       <c r="A4" s="3" t="n">
         <v>232</v>
       </c>
@@ -607,7 +675,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.65" r="5">
       <c r="A5" s="3" t="n">
         <v>233</v>
       </c>
@@ -636,7 +704,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.65" r="6">
       <c r="A6" s="3" t="n">
         <v>234</v>
       </c>
@@ -665,7 +733,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.65" r="7">
       <c r="A7" s="3" t="n">
         <v>235</v>
       </c>
@@ -694,7 +762,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="29" customHeight="1">
+    <row customHeight="1" ht="29" r="8">
       <c r="A8" s="3" t="n">
         <v>236</v>
       </c>
@@ -723,7 +791,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="29" customHeight="1">
+    <row customHeight="1" ht="29" r="9">
       <c r="A9" s="3" t="n">
         <v>237</v>
       </c>
@@ -754,7 +822,7 @@
     <row r="10"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -766,7 +834,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -778,7 +846,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -789,7 +857,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Life/Happiness.xlsx
+++ b/Questions/Life/Happiness.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12580" windowWidth="23260" xWindow="-110" yWindow="-110"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,119 +151,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -534,24 +466,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A4" ySplit="1"/>
-      <selection activeCell="D10" pane="bottomLeft" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.36328125"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.08984375"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.1796875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.81640625"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.7265625"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.6328125"/>
+    <col width="3.36328125" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.08984375" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.1796875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.81640625" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.7265625" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.6328125" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -588,7 +520,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="29" r="2">
+    <row r="2" ht="29" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>230</v>
       </c>
@@ -617,7 +549,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.65" r="3">
+    <row r="3" ht="27.65" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>231</v>
       </c>
@@ -646,7 +578,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.65" r="4">
+    <row r="4" ht="27.65" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>232</v>
       </c>
@@ -675,7 +607,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.65" r="5">
+    <row r="5" ht="27.65" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>233</v>
       </c>
@@ -704,7 +636,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.65" r="6">
+    <row r="6" ht="27.65" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>234</v>
       </c>
@@ -733,7 +665,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.65" r="7">
+    <row r="7" ht="27.65" customHeight="1">
       <c r="A7" s="3" t="n">
         <v>235</v>
       </c>
@@ -762,7 +694,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="29" r="8">
+    <row r="8" ht="29" customHeight="1">
       <c r="A8" s="3" t="n">
         <v>236</v>
       </c>
@@ -791,7 +723,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="29" r="9">
+    <row r="9" ht="29" customHeight="1">
       <c r="A9" s="3" t="n">
         <v>237</v>
       </c>
@@ -819,9 +751,10 @@
         </is>
       </c>
     </row>
+    <row r="10"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -833,7 +766,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -845,7 +778,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -856,7 +789,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Life/Happiness.xlsx
+++ b/Questions/Life/Happiness.xlsx
@@ -196,6 +196,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 

--- a/Questions/Life/Happiness.xlsx
+++ b/Questions/Life/Happiness.xlsx
@@ -196,74 +196,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 

--- a/Questions/Life/Happiness.xlsx
+++ b/Questions/Life/Happiness.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12580" windowWidth="23260" xWindow="-110" yWindow="-110"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,10 +13,96 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>If one of the family members is not happy, eventually none of them will be h*****</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>18/01/21</t>
+  </si>
+  <si>
+    <t>If one of the family members is not happy, e***** none of them will be happy</t>
+  </si>
+  <si>
+    <t>eventually</t>
+  </si>
+  <si>
+    <t>Without happiness, we will not be a***** to share it</t>
+  </si>
+  <si>
+    <t>able</t>
+  </si>
+  <si>
+    <t>Without happiness, we w***** not be able to share it</t>
+  </si>
+  <si>
+    <t>will</t>
+  </si>
+  <si>
+    <t>A happy man does not complain all the time and thinks the world o***** him</t>
+  </si>
+  <si>
+    <t>owes</t>
+  </si>
+  <si>
+    <t>19/01/21</t>
+  </si>
+  <si>
+    <t>A happy man does not c***** all the time and thinks the world owes him</t>
+  </si>
+  <si>
+    <t>complain</t>
+  </si>
+  <si>
+    <t>Happy people share p***** energy with those around them</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>20/01/21</t>
+  </si>
+  <si>
+    <t>Happy people share positive energy with t***** around them</t>
+  </si>
+  <si>
+    <t>those</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,51 +237,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -468,293 +554,215 @@
   </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A4" ySplit="1"/>
+      <selection activeCell="D10" pane="bottomLeft" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
-    <col width="3.36328125" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.08984375" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.1796875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.81640625" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.7265625" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.6328125" customWidth="1" style="11" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.36328125"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.08984375"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.1796875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.81640625"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.7265625"/>
+    <col customWidth="1" max="7" min="7" style="11" width="12.6328125"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="12" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="10" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" ht="29" customHeight="1">
+    <row customHeight="1" ht="29" r="2" spans="1:7">
       <c r="A2" s="3" t="n">
         <v>230</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>If one of the family members is not happy, eventually none of them will be h*****</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>happy</t>
-        </is>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="6" t="n"/>
-      <c r="G2" s="11" t="inlineStr">
-        <is>
-          <t>18/01/21</t>
-        </is>
+      <c r="G2" s="11" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.65" r="3" spans="1:7">
       <c r="A3" s="3" t="n">
         <v>231</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>If one of the family members is not happy, e***** none of them will be happy</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>eventually</t>
-        </is>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F3" s="6" t="n"/>
-      <c r="G3" s="11" t="inlineStr">
-        <is>
-          <t>18/01/21</t>
-        </is>
+      <c r="G3" s="11" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.65" r="4" spans="1:7">
       <c r="A4" s="3" t="n">
         <v>232</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>Without happiness, we will not be a***** to share it</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>able</t>
-        </is>
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="F4" s="6" t="n"/>
-      <c r="G4" s="11" t="inlineStr">
-        <is>
-          <t>18/01/21</t>
-        </is>
+      <c r="G4" s="11" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="5" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.65" r="5" spans="1:7">
       <c r="A5" s="3" t="n">
         <v>233</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>Without happiness, we w***** not be able to share it</t>
-        </is>
-      </c>
-      <c r="E5" s="9" t="inlineStr">
-        <is>
-          <t>will</t>
-        </is>
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="F5" s="9" t="n"/>
-      <c r="G5" s="11" t="inlineStr">
-        <is>
-          <t>18/01/21</t>
-        </is>
+      <c r="G5" s="11" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="6" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.65" r="6" spans="1:7">
       <c r="A6" s="3" t="n">
         <v>234</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>A happy man does not complain all the time and thinks the world o***** him</t>
-        </is>
-      </c>
-      <c r="E6" s="9" t="inlineStr">
-        <is>
-          <t>owes</t>
-        </is>
+      <c r="C6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="F6" s="9" t="n"/>
-      <c r="G6" s="11" t="inlineStr">
-        <is>
-          <t>19/01/21</t>
-        </is>
+      <c r="G6" s="11" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="7" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.65" r="7" spans="1:7">
       <c r="A7" s="3" t="n">
         <v>235</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>A happy man does not c***** all the time and thinks the world owes him</t>
-        </is>
-      </c>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <t>complain</t>
-        </is>
+      <c r="C7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="F7" s="6" t="n"/>
-      <c r="G7" s="11" t="inlineStr">
-        <is>
-          <t>19/01/21</t>
-        </is>
+      <c r="G7" s="11" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="8" ht="29" customHeight="1">
+    <row customHeight="1" ht="29" r="8" spans="1:7">
       <c r="A8" s="3" t="n">
         <v>236</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D8" s="6" t="inlineStr">
-        <is>
-          <t>Happy people share p***** energy with those around them</t>
-        </is>
-      </c>
-      <c r="E8" s="6" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="C8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="F8" s="6" t="n"/>
-      <c r="G8" s="11" t="inlineStr">
-        <is>
-          <t>20/01/21</t>
-        </is>
+      <c r="G8" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="9" ht="29" customHeight="1">
+    <row customHeight="1" ht="29" r="9" spans="1:7">
       <c r="A9" s="3" t="n">
         <v>237</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D9" s="6" t="inlineStr">
-        <is>
-          <t>Happy people share positive energy with t***** around them</t>
-        </is>
-      </c>
-      <c r="E9" s="5" t="inlineStr">
-        <is>
-          <t>those</t>
-        </is>
-      </c>
-      <c r="G9" s="11" t="inlineStr">
-        <is>
-          <t>20/01/21</t>
-        </is>
+      <c r="C9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="10"/>
+    <row r="10" spans="1:7"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -766,7 +774,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -778,7 +786,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -789,7 +797,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Life/Happiness.xlsx
+++ b/Questions/Life/Happiness.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12580" windowWidth="23260" xWindow="-110" yWindow="-110"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,96 +13,10 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>If one of the family members is not happy, eventually none of them will be h*****</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>18/01/21</t>
-  </si>
-  <si>
-    <t>If one of the family members is not happy, e***** none of them will be happy</t>
-  </si>
-  <si>
-    <t>eventually</t>
-  </si>
-  <si>
-    <t>Without happiness, we will not be a***** to share it</t>
-  </si>
-  <si>
-    <t>able</t>
-  </si>
-  <si>
-    <t>Without happiness, we w***** not be able to share it</t>
-  </si>
-  <si>
-    <t>will</t>
-  </si>
-  <si>
-    <t>A happy man does not complain all the time and thinks the world o***** him</t>
-  </si>
-  <si>
-    <t>owes</t>
-  </si>
-  <si>
-    <t>19/01/21</t>
-  </si>
-  <si>
-    <t>A happy man does not c***** all the time and thinks the world owes him</t>
-  </si>
-  <si>
-    <t>complain</t>
-  </si>
-  <si>
-    <t>Happy people share p***** energy with those around them</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>20/01/21</t>
-  </si>
-  <si>
-    <t>Happy people share positive energy with t***** around them</t>
-  </si>
-  <si>
-    <t>those</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -237,51 +151,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -554,215 +468,293 @@
   </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A4" ySplit="1"/>
-      <selection activeCell="D10" pane="bottomLeft" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.36328125"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.08984375"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.1796875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.81640625"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.7265625"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.6328125"/>
+    <col width="3.36328125" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.08984375" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.1796875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.81640625" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.7265625" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.6328125" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="29" r="2" spans="1:7">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="12" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="10" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="29" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>230</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>If one of the family members is not happy, eventually none of them will be h*****</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
       </c>
       <c r="F2" s="6" t="n"/>
-      <c r="G2" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.65" r="3" spans="1:7">
+      <c r="G2" s="11" t="inlineStr">
+        <is>
+          <t>18/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="27.65" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>231</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>12</v>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>If one of the family members is not happy, e***** none of them will be happy</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>eventually</t>
+        </is>
       </c>
       <c r="F3" s="6" t="n"/>
-      <c r="G3" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.65" r="4" spans="1:7">
+      <c r="G3" s="11" t="inlineStr">
+        <is>
+          <t>18/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="27.65" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>232</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>14</v>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>Without happiness, we will not be a***** to share it</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>able</t>
+        </is>
       </c>
       <c r="F4" s="6" t="n"/>
-      <c r="G4" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.65" r="5" spans="1:7">
+      <c r="G4" s="11" t="inlineStr">
+        <is>
+          <t>18/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="27.65" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>233</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>16</v>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>Without happiness, we w***** not be able to share it</t>
+        </is>
+      </c>
+      <c r="E5" s="9" t="inlineStr">
+        <is>
+          <t>will</t>
+        </is>
       </c>
       <c r="F5" s="9" t="n"/>
-      <c r="G5" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.65" r="6" spans="1:7">
+      <c r="G5" s="11" t="inlineStr">
+        <is>
+          <t>18/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="27.65" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>234</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>18</v>
+      <c r="C6" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>A happy man does not complain all the time and thinks the world o***** him</t>
+        </is>
+      </c>
+      <c r="E6" s="9" t="inlineStr">
+        <is>
+          <t>owes</t>
+        </is>
       </c>
       <c r="F6" s="9" t="n"/>
-      <c r="G6" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.65" r="7" spans="1:7">
+      <c r="G6" s="11" t="inlineStr">
+        <is>
+          <t>19/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="27.65" customHeight="1">
       <c r="A7" s="3" t="n">
         <v>235</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>21</v>
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>A happy man does not c***** all the time and thinks the world owes him</t>
+        </is>
+      </c>
+      <c r="E7" s="6" t="inlineStr">
+        <is>
+          <t>complain</t>
+        </is>
       </c>
       <c r="F7" s="6" t="n"/>
-      <c r="G7" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="29" r="8" spans="1:7">
+      <c r="G7" s="11" t="inlineStr">
+        <is>
+          <t>19/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="29" customHeight="1">
       <c r="A8" s="3" t="n">
         <v>236</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>23</v>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>Happy people share p***** energy with those around them</t>
+        </is>
+      </c>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
       <c r="F8" s="6" t="n"/>
-      <c r="G8" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="29" r="9" spans="1:7">
+      <c r="G8" s="11" t="inlineStr">
+        <is>
+          <t>20/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="29" customHeight="1">
       <c r="A9" s="3" t="n">
         <v>237</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7"/>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>Happy people share positive energy with t***** around them</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>those</t>
+        </is>
+      </c>
+      <c r="G9" s="11" t="inlineStr">
+        <is>
+          <t>20/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="10"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -774,7 +766,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -786,7 +778,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -797,7 +789,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Life/Happiness.xlsx
+++ b/Questions/Life/Happiness.xlsx
@@ -196,6 +196,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,7 +534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -751,7 +819,6 @@
         </is>
       </c>
     </row>
-    <row r="10"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/Life/Happiness.xlsx
+++ b/Questions/Life/Happiness.xlsx
@@ -196,74 +196,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -534,7 +466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -819,6 +751,7 @@
         </is>
       </c>
     </row>
+    <row r="10"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/Life/Happiness.xlsx
+++ b/Questions/Life/Happiness.xlsx
@@ -196,6 +196,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -534,7 +602,7 @@
       </c>
       <c r="D2" s="6" t="inlineStr">
         <is>
-          <t>If one of the family members is not happy, eventually none of them will be h*****</t>
+          <t>If one of the family members is not happy, eventually none of them will be h****</t>
         </is>
       </c>
       <c r="E2" s="6" t="inlineStr">
@@ -563,7 +631,7 @@
       </c>
       <c r="D3" s="6" t="inlineStr">
         <is>
-          <t>If one of the family members is not happy, e***** none of them will be happy</t>
+          <t>If one of the family members is not happy, e***************** none of them will be happy</t>
         </is>
       </c>
       <c r="E3" s="6" t="inlineStr">
@@ -592,7 +660,7 @@
       </c>
       <c r="D4" s="6" t="inlineStr">
         <is>
-          <t>Without happiness, we will not be a***** to share it</t>
+          <t>Without happiness, we will not be a*** to share it</t>
         </is>
       </c>
       <c r="E4" s="6" t="inlineStr">
@@ -621,7 +689,7 @@
       </c>
       <c r="D5" s="6" t="inlineStr">
         <is>
-          <t>Without happiness, we w***** not be able to share it</t>
+          <t>Without happiness, we w*** not be able to share it</t>
         </is>
       </c>
       <c r="E5" s="9" t="inlineStr">
@@ -650,7 +718,7 @@
       </c>
       <c r="D6" s="6" t="inlineStr">
         <is>
-          <t>A happy man does not complain all the time and thinks the world o***** him</t>
+          <t>A happy man does not complain all the time and thinks the world o*** him</t>
         </is>
       </c>
       <c r="E6" s="9" t="inlineStr">
@@ -679,7 +747,7 @@
       </c>
       <c r="D7" s="6" t="inlineStr">
         <is>
-          <t>A happy man does not c***** all the time and thinks the world owes him</t>
+          <t>A happy man does not c********* all the time and thinks the world owes him</t>
         </is>
       </c>
       <c r="E7" s="6" t="inlineStr">
@@ -708,7 +776,7 @@
       </c>
       <c r="D8" s="6" t="inlineStr">
         <is>
-          <t>Happy people share p***** energy with those around them</t>
+          <t>Happy people share p********* energy with those around them</t>
         </is>
       </c>
       <c r="E8" s="6" t="inlineStr">
@@ -737,7 +805,7 @@
       </c>
       <c r="D9" s="6" t="inlineStr">
         <is>
-          <t>Happy people share positive energy with t***** around them</t>
+          <t>Happy people share positive energy with t**** around them</t>
         </is>
       </c>
       <c r="E9" s="5" t="inlineStr">

--- a/Questions/Life/Happiness.xlsx
+++ b/Questions/Life/Happiness.xlsx
@@ -196,74 +196,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -631,7 +563,7 @@
       </c>
       <c r="D3" s="6" t="inlineStr">
         <is>
-          <t>If one of the family members is not happy, e***************** none of them will be happy</t>
+          <t>If one of the family members is not happy, e***** none of them will be happy</t>
         </is>
       </c>
       <c r="E3" s="6" t="inlineStr">
@@ -747,7 +679,7 @@
       </c>
       <c r="D7" s="6" t="inlineStr">
         <is>
-          <t>A happy man does not c********* all the time and thinks the world owes him</t>
+          <t>A happy man does not c***** all the time and thinks the world owes him</t>
         </is>
       </c>
       <c r="E7" s="6" t="inlineStr">
@@ -776,7 +708,7 @@
       </c>
       <c r="D8" s="6" t="inlineStr">
         <is>
-          <t>Happy people share p********* energy with those around them</t>
+          <t>Happy people share p***** energy with those around them</t>
         </is>
       </c>
       <c r="E8" s="6" t="inlineStr">
